--- a/funds/stocks/歌尔股份&财务报表同型分析.xlsx
+++ b/funds/stocks/歌尔股份&财务报表同型分析.xlsx
@@ -641,14 +641,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="178" formatCode="\+0;\-0;0;@"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="179" formatCode="\+0;\-0;0;@"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -724,40 +724,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -768,16 +763,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -798,7 +786,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,9 +822,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -822,17 +831,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -844,19 +845,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -905,7 +905,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,19 +1043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,31 +1055,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,103 +1067,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,6 +1182,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1197,6 +1206,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1208,21 +1256,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1246,39 +1279,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1287,10 +1287,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1299,133 +1299,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1541,7 +1541,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="11" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1559,7 +1559,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3150,7 +3150,7 @@
   <dimension ref="B2:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72131147540984" defaultRowHeight="14.4"/>
@@ -3650,7 +3650,7 @@
         <v>126</v>
       </c>
       <c r="I20" s="45">
-        <v>9.88</v>
+        <v>33.68</v>
       </c>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="I26" s="16">
         <f>I25/I20</f>
-        <v>-7.91460280809509</v>
+        <v>-2.32174215391863</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="J31" s="13">
         <f>I31/I20</f>
-        <v>43.0756325910931</v>
+        <v>12.6362010095012</v>
       </c>
     </row>
     <row r="32" spans="7:10">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="J32" s="13">
         <f>I32/I20</f>
-        <v>30.1529428137652</v>
+        <v>8.84534070665083</v>
       </c>
     </row>
     <row r="33" spans="7:10">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="J33" s="13">
         <f>I33/I20</f>
-        <v>86.1512651821862</v>
+        <v>25.2724020190024</v>
       </c>
     </row>
   </sheetData>
